--- a/VersionRecords/Version dev_app_2.3.0_20170516/模板_版本Bug和特性计划及评审表vdev_app_2.3.0_20170516_EQ组.xlsx
+++ b/VersionRecords/Version dev_app_2.3.0_20170516/模板_版本Bug和特性计划及评审表vdev_app_2.3.0_20170516_EQ组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14070"/>
+    <workbookView windowWidth="28695" windowHeight="13050" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
   <si>
     <t>No</t>
   </si>
@@ -308,9 +308,13 @@
     <t>怡然</t>
   </si>
   <si>
-    <t>sysconfig.weixin.weixinhuoBanToken=mogo_huoban_weixin
+    <t>修改：
+sysconfig.weixin.weixinhuoBanAppID=wx58b484806c448979
+sysconfig.weixin.weixinhuoBanAppSecret=a758fdcfec1cd98a9d8305dad477a96b
+新增：
+sysconfig.weixin.weixinhuoBanToken=2e7d39b8f906d66107a8a1f4t7obn
 sysconfig.weixin.weixinhuoBanEncryptMessage=false
-sysconfig.weixin.weixinhuoBanEncodingaeskey=rlRniLyl2W4Uvqdb7Yxves32J9PDzvaVuZ0Tc60BkFp</t>
+sysconfig.weixin.weixinhuoBanEncodingaeskey=59w3NW7x3JOdBs5aFRAClo43BQbA0ICp5IpPNTYSvFi</t>
   </si>
   <si>
     <t>一键推送微信分享</t>
@@ -348,6 +352,15 @@
 </t>
   </si>
   <si>
+    <t>修改：
+sysconfig.weixin.weixinhuoBanAppID=wx955293f7c6e69520
+sysconfig.weixin.weixinhuoBanAppSecret=a406c55b300a08dd2c2c4d72f19c3e8a
+新增：
+sysconfig.weixin.weixinhuoBanToken=mogo_huoban_weixin
+sysconfig.weixin.weixinhuoBanEncryptMessage=false
+sysconfig.weixin.weixinhuoBanEncodingaeskey=rlRniLyl2W4Uvqdb7Yxves32J9PDzvaVuZ0Tc60BkFp</t>
+  </si>
+  <si>
     <t>sysconfig.landlordVoice=</t>
   </si>
   <si>
@@ -380,10 +393,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -485,16 +498,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -506,14 +520,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,6 +549,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -535,7 +579,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -565,28 +609,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -596,26 +618,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -623,14 +644,6 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -689,13 +702,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,37 +750,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,7 +774,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,7 +810,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,19 +828,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,73 +882,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,56 +1047,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1120,6 +1085,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1136,10 +1149,10 @@
     <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1148,16 +1161,16 @@
     <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1166,126 +1179,126 @@
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
@@ -2028,7 +2041,7 @@
   <sheetPr/>
   <dimension ref="A1:X170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6272,17 +6285,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1 R2 R3:R1048576">
-      <formula1>"能,否"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E2 E3:E1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1 P2 P3:P1048576">
+      <formula1>"通过,不通过"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 I1 V1 G2 I2 V2 G3:G1048576 I3:I1048576 V3:V1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1 P2 P3:P1048576">
-      <formula1>"通过,不通过"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1 R2 R3:R1048576">
+      <formula1>"能,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6463,7 +6476,7 @@
     <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:11">
+    <row r="1" ht="18.75" spans="1:11">
       <c r="A1" s="29" t="s">
         <v>49</v>
       </c>
@@ -6478,7 +6491,7 @@
       <c r="J1" s="30"/>
       <c r="K1" s="30"/>
     </row>
-    <row r="2" ht="17.25" spans="1:11">
+    <row r="2" ht="14.25" spans="1:11">
       <c r="A2" s="31" t="s">
         <v>50</v>
       </c>
@@ -6513,7 +6526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" ht="17.25" spans="1:11">
+    <row r="3" ht="14.25" spans="1:11">
       <c r="A3" s="33"/>
       <c r="B3" s="33"/>
       <c r="C3" s="34"/>
@@ -6526,7 +6539,7 @@
       <c r="J3" s="43"/>
       <c r="K3" s="44"/>
     </row>
-    <row r="4" ht="17.25" spans="1:11">
+    <row r="4" ht="14.25" spans="1:11">
       <c r="A4" s="38"/>
       <c r="B4" s="39"/>
       <c r="C4" s="34"/>
@@ -6539,7 +6552,7 @@
       <c r="J4" s="43"/>
       <c r="K4" s="44"/>
     </row>
-    <row r="5" ht="17.25" spans="1:11">
+    <row r="5" ht="14.25" spans="1:11">
       <c r="A5" s="33"/>
       <c r="B5" s="33"/>
       <c r="C5" s="34"/>
@@ -6552,7 +6565,7 @@
       <c r="J5" s="43"/>
       <c r="K5" s="44"/>
     </row>
-    <row r="6" ht="17.25" spans="1:11">
+    <row r="6" ht="14.25" spans="1:11">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="34"/>
@@ -6565,7 +6578,7 @@
       <c r="J6" s="43"/>
       <c r="K6" s="44"/>
     </row>
-    <row r="7" ht="17.25" spans="1:11">
+    <row r="7" ht="14.25" spans="1:11">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="34"/>
@@ -6578,7 +6591,7 @@
       <c r="J7" s="43"/>
       <c r="K7" s="44"/>
     </row>
-    <row r="8" ht="17.25" spans="1:11">
+    <row r="8" ht="14.25" spans="1:11">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="34"/>
@@ -6591,7 +6604,7 @@
       <c r="J8" s="43"/>
       <c r="K8" s="44"/>
     </row>
-    <row r="9" ht="17.25" spans="1:11">
+    <row r="9" ht="14.25" spans="1:11">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="34"/>
@@ -6604,7 +6617,7 @@
       <c r="J9" s="43"/>
       <c r="K9" s="44"/>
     </row>
-    <row r="10" ht="17.25" spans="1:11">
+    <row r="10" ht="14.25" spans="1:11">
       <c r="A10" s="38"/>
       <c r="B10" s="38"/>
       <c r="C10" s="34"/>
@@ -6617,7 +6630,7 @@
       <c r="J10" s="43"/>
       <c r="K10" s="44"/>
     </row>
-    <row r="11" ht="16.5" spans="1:11">
+    <row r="11" spans="1:11">
       <c r="A11" s="40"/>
       <c r="B11" s="40"/>
       <c r="C11" s="34"/>
@@ -6851,7 +6864,7 @@
       </c>
       <c r="M6" s="26"/>
     </row>
-    <row r="7" ht="49.5" spans="1:13">
+    <row r="7" ht="115.5" spans="1:13">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -6866,7 +6879,7 @@
         <v>71</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>84</v>
@@ -7053,7 +7066,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -7255,7 +7268,7 @@
       </c>
       <c r="M6" s="26"/>
     </row>
-    <row r="7" ht="49.5" spans="1:13">
+    <row r="7" ht="115.5" spans="1:13">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -7270,7 +7283,7 @@
         <v>71</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>84</v>
@@ -7456,8 +7469,8 @@
   <sheetPr/>
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -7659,7 +7672,7 @@
       </c>
       <c r="M6" s="26"/>
     </row>
-    <row r="7" ht="49.5" spans="1:13">
+    <row r="7" ht="115.5" spans="1:13">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -7677,7 +7690,7 @@
         <v>78</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H7" s="17" t="s">
         <v>85</v>
@@ -7714,7 +7727,7 @@
         <v>78</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>87</v>
@@ -8160,11 +8173,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F5 F6:F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
+      <formula1>"生产环境,测试环境,开发环境"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
-      <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
@@ -8197,28 +8210,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
